--- a/Song Rankdowns/Sheet generator/outputv2.xlsx
+++ b/Song Rankdowns/Sheet generator/outputv2.xlsx
@@ -34,12 +34,18 @@
       <u val="single"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid"/>
@@ -135,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -143,49 +149,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="AAFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="AAFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="AAFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="AAFF0000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -559,15 +552,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="3" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="4.5" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="6.5" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="3" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="7" max="7"/>
+    <col width="120" customWidth="1" min="8" max="8"/>
     <col width="3" customWidth="1" min="9" max="9"/>
+    <col width="60" customWidth="1" min="10" max="10"/>
+    <col width="120" customWidth="1" min="11" max="11"/>
     <col width="3" customWidth="1" min="12" max="12"/>
+    <col width="60" customWidth="1" min="13" max="13"/>
+    <col width="120" customWidth="1" min="14" max="14"/>
     <col width="3" customWidth="1" min="15" max="15"/>
+    <col width="60" customWidth="1" min="16" max="16"/>
+    <col width="120" customWidth="1" min="17" max="17"/>
     <col width="3" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -636,131 +637,131 @@
       <c r="R1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>hotline bling</t>
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Kanye West - Runaway</t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>21st</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr"/>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>16th</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr"/>
       <c r="F2" s="1" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
       <c r="I2" s="1" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="1" t="n"/>
-      <c r="M2" s="3" t="n"/>
-      <c r="N2" s="3" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
       <c r="O2" s="1" t="n"/>
-      <c r="P2" s="3" t="n"/>
-      <c r="Q2" s="3" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
       <c r="R2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>woohoo</t>
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>kero kero bonito - flamingo</t>
         </is>
       </c>
       <c r="C3" s="1" t="n"/>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>20th</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>15th</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr"/>
       <c r="F3" s="1" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
       <c r="I3" s="1" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="1" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
+      <c r="M3" s="4" t="n"/>
+      <c r="N3" s="4" t="n"/>
       <c r="O3" s="1" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="4" t="n"/>
       <c r="R3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>vacation</t>
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Katamari Damacy - Lonely Rolling Star</t>
         </is>
       </c>
       <c r="C4" s="1" t="n"/>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>19th</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>14th</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr"/>
       <c r="F4" s="1" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="n"/>
       <c r="I4" s="1" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="1" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
+      <c r="M4" s="4" t="n"/>
+      <c r="N4" s="4" t="n"/>
       <c r="O4" s="1" t="n"/>
-      <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="3" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="4" t="n"/>
       <c r="R4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Beyonce - Formation</t>
         </is>
       </c>
       <c r="C5" s="1" t="n"/>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>18th</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>13th</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr"/>
       <c r="F5" s="1" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="4" t="n"/>
       <c r="I5" s="1" t="n"/>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="1" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
+      <c r="M5" s="4" t="n"/>
+      <c r="N5" s="4" t="n"/>
       <c r="O5" s="1" t="n"/>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="3" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="4" t="n"/>
       <c r="R5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Lizzo - Juice</t>
         </is>
       </c>
       <c r="C6" s="1" t="n"/>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>17th</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr"/>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>12th</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr"/>
       <c r="F6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
       <c r="L6" s="1" t="n"/>
@@ -768,19 +769,19 @@
       <c r="R6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Lady Gaga - Bad Romance</t>
         </is>
       </c>
       <c r="C7" s="1" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>16th</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr"/>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>11th</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr"/>
       <c r="F7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="L7" s="1" t="n"/>
@@ -788,59 +789,59 @@
       <c r="R7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Hozier - Take Me To Church</t>
         </is>
       </c>
       <c r="C8" s="1" t="n"/>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>15th</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>10th</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr"/>
       <c r="F8" s="1" t="n"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21st Place Vote: </t>
-        </is>
-      </c>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16th Place Vote: </t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
       <c r="I8" s="1" t="n"/>
-      <c r="J8" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17th Place Vote: </t>
-        </is>
-      </c>
-      <c r="K8" s="9" t="inlineStr">
+      <c r="J8" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13th Place Vote: </t>
+        </is>
+      </c>
+      <c r="K8" s="11" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
       <c r="L8" s="1" t="n"/>
-      <c r="M8" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13th Place Vote: </t>
-        </is>
-      </c>
-      <c r="N8" s="10" t="inlineStr">
+      <c r="M8" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10th Place Vote: </t>
+        </is>
+      </c>
+      <c r="N8" s="12" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
       <c r="O8" s="1" t="n"/>
-      <c r="P8" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8th Place Vote: </t>
-        </is>
-      </c>
-      <c r="Q8" s="11" t="inlineStr">
+      <c r="P8" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7th Place Vote: </t>
+        </is>
+      </c>
+      <c r="Q8" s="13" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
@@ -848,303 +849,303 @@
       <c r="R8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Kendrick Lamar - Alright</t>
         </is>
       </c>
       <c r="C9" s="1" t="n"/>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>14th</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>9th</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="1" t="n"/>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="H9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="1" t="n"/>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="J9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="K9" s="7" t="inlineStr"/>
+      <c r="K9" s="8" t="inlineStr"/>
       <c r="L9" s="1" t="n"/>
-      <c r="M9" s="3" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="N9" s="3" t="inlineStr"/>
+      <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="1" t="n"/>
-      <c r="P9" s="12" t="inlineStr">
+      <c r="P9" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="Q9" s="12" t="inlineStr"/>
+      <c r="Q9" s="14" t="inlineStr"/>
       <c r="R9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Kendrick Lamar - King Kunta</t>
         </is>
       </c>
       <c r="C10" s="1" t="n"/>
-      <c r="D10" s="13" t="inlineStr">
-        <is>
-          <t>13th</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>8th</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="1" t="n"/>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="H10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="1" t="n"/>
-      <c r="J10" s="7" t="inlineStr">
+      <c r="J10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="K10" s="7" t="inlineStr"/>
+      <c r="K10" s="8" t="inlineStr"/>
       <c r="L10" s="1" t="n"/>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr"/>
+      <c r="N10" s="4" t="inlineStr"/>
       <c r="O10" s="1" t="n"/>
-      <c r="P10" s="12" t="inlineStr">
+      <c r="P10" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="Q10" s="12" t="inlineStr"/>
+      <c r="Q10" s="14" t="inlineStr"/>
       <c r="R10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Kendrick Lamar - DNA</t>
         </is>
       </c>
       <c r="C11" s="1" t="n"/>
-      <c r="D11" s="13" t="inlineStr">
-        <is>
-          <t>12th</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr"/>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>7th</t>
+        </is>
+      </c>
+      <c r="E11" s="14" t="inlineStr"/>
       <c r="F11" s="1" t="n"/>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="G11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="H11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="1" t="n"/>
-      <c r="J11" s="7" t="inlineStr">
+      <c r="J11" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="K11" s="7" t="inlineStr"/>
+      <c r="K11" s="8" t="inlineStr"/>
       <c r="L11" s="1" t="n"/>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="N11" s="3" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
       <c r="O11" s="1" t="n"/>
-      <c r="P11" s="12" t="inlineStr">
+      <c r="P11" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="Q11" s="12" t="inlineStr"/>
+      <c r="Q11" s="14" t="inlineStr"/>
       <c r="R11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Kendrick Lamar - Humble</t>
         </is>
       </c>
       <c r="C12" s="1" t="n"/>
-      <c r="D12" s="13" t="inlineStr">
-        <is>
-          <t>11th</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr"/>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="E12" s="14" t="inlineStr"/>
       <c r="F12" s="1" t="n"/>
-      <c r="G12" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="1" t="n"/>
-      <c r="J12" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="K12" s="7" t="inlineStr"/>
+      <c r="J12" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="K12" s="8" t="inlineStr"/>
       <c r="L12" s="1" t="n"/>
-      <c r="M12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="inlineStr"/>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr"/>
       <c r="O12" s="1" t="n"/>
-      <c r="P12" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="Q12" s="12" t="inlineStr"/>
+      <c r="P12" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="Q12" s="14" t="inlineStr"/>
       <c r="R12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Arca - Bruja</t>
         </is>
       </c>
       <c r="C13" s="1" t="n"/>
-      <c r="D13" s="13" t="inlineStr">
-        <is>
-          <t>10th</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr"/>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="E13" s="14" t="inlineStr"/>
       <c r="F13" s="1" t="n"/>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr"/>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr"/>
       <c r="I13" s="1" t="n"/>
-      <c r="J13" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="K13" s="7" t="inlineStr"/>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr"/>
       <c r="L13" s="1" t="n"/>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr"/>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr"/>
       <c r="O13" s="1" t="n"/>
-      <c r="P13" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="Q13" s="12" t="inlineStr"/>
+      <c r="P13" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="Q13" s="14" t="inlineStr"/>
       <c r="R13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>SOPHIE - Immaterial</t>
         </is>
       </c>
       <c r="C14" s="1" t="n"/>
-      <c r="D14" s="13" t="inlineStr">
-        <is>
-          <t>9th</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr"/>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="E14" s="14" t="inlineStr"/>
       <c r="F14" s="1" t="n"/>
-      <c r="G14" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="H14" s="5" t="inlineStr"/>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="1" t="n"/>
-      <c r="J14" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="K14" s="7" t="inlineStr"/>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr"/>
       <c r="L14" s="1" t="n"/>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr"/>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="N14" s="4" t="inlineStr"/>
       <c r="O14" s="1" t="n"/>
-      <c r="P14" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="Q14" s="12" t="inlineStr"/>
+      <c r="P14" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="Q14" s="14" t="inlineStr"/>
       <c r="R14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Porter Robinson - Shelter</t>
         </is>
       </c>
       <c r="C15" s="1" t="n"/>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>8th</t>
-        </is>
-      </c>
-      <c r="E15" s="12" t="inlineStr"/>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="E15" s="17" t="inlineStr"/>
       <c r="F15" s="1" t="n"/>
-      <c r="G15" s="15" t="inlineStr">
+      <c r="G15" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
       <c r="I15" s="1" t="n"/>
-      <c r="J15" s="15" t="inlineStr">
+      <c r="J15" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
       <c r="L15" s="1" t="n"/>
-      <c r="M15" s="15" t="inlineStr">
+      <c r="M15" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
       <c r="O15" s="1" t="n"/>
-      <c r="P15" s="15" t="inlineStr">
+      <c r="P15" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
@@ -1152,19 +1153,19 @@
       <c r="R15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Yaeji - raingurl</t>
         </is>
       </c>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>7th</t>
-        </is>
-      </c>
-      <c r="E16" s="12" t="inlineStr"/>
+      <c r="D16" s="19" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="E16" s="20" t="inlineStr"/>
       <c r="F16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
@@ -1172,19 +1173,19 @@
       <c r="R16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Charli XCX - Vroom Vroom</t>
         </is>
       </c>
       <c r="C17" s="1" t="n"/>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="E17" s="12" t="inlineStr"/>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="E17" s="22" t="inlineStr"/>
       <c r="F17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
@@ -1192,59 +1193,48 @@
       <c r="R17" s="1" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
-        </is>
-      </c>
+      <c r="A18" s="3" t="n"/>
       <c r="C18" s="1" t="n"/>
-      <c r="D18" s="14" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="E18" s="12" t="inlineStr"/>
       <c r="F18" s="1" t="n"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20th Place Vote: </t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="G18" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15th Place Vote: </t>
+        </is>
+      </c>
+      <c r="H18" s="10" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
       <c r="I18" s="1" t="n"/>
-      <c r="J18" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16th Place Vote: </t>
-        </is>
-      </c>
-      <c r="K18" s="9" t="inlineStr">
+      <c r="J18" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12th Place Vote: </t>
+        </is>
+      </c>
+      <c r="K18" s="11" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
       <c r="L18" s="1" t="n"/>
-      <c r="M18" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12th Place Vote: </t>
-        </is>
-      </c>
-      <c r="N18" s="10" t="inlineStr">
+      <c r="M18" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9th Place Vote: </t>
+        </is>
+      </c>
+      <c r="N18" s="12" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
       <c r="O18" s="1" t="n"/>
-      <c r="P18" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7th Place Vote: </t>
-        </is>
-      </c>
-      <c r="Q18" s="11" t="inlineStr">
+      <c r="P18" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6th Place Vote: </t>
+        </is>
+      </c>
+      <c r="Q18" s="13" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
@@ -1252,270 +1242,226 @@
       <c r="R18" s="1" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
-        </is>
-      </c>
+      <c r="A19" s="3" t="n"/>
       <c r="C19" s="1" t="n"/>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="E19" s="12" t="inlineStr"/>
       <c r="F19" s="1" t="n"/>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="G19" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="H19" s="5" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="1" t="n"/>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="J19" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="K19" s="7" t="inlineStr"/>
+      <c r="K19" s="8" t="inlineStr"/>
       <c r="L19" s="1" t="n"/>
-      <c r="M19" s="3" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="N19" s="3" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr"/>
       <c r="O19" s="1" t="n"/>
-      <c r="P19" s="12" t="inlineStr">
+      <c r="P19" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="Q19" s="12" t="inlineStr"/>
+      <c r="Q19" s="14" t="inlineStr"/>
       <c r="R19" s="1" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>bruja</t>
-        </is>
-      </c>
+      <c r="A20" s="3" t="n"/>
       <c r="C20" s="1" t="n"/>
-      <c r="D20" s="16" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="E20" s="17" t="inlineStr"/>
       <c r="F20" s="1" t="n"/>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="H20" s="5" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="1" t="n"/>
-      <c r="J20" s="7" t="inlineStr">
+      <c r="J20" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="K20" s="7" t="inlineStr"/>
+      <c r="K20" s="8" t="inlineStr"/>
       <c r="L20" s="1" t="n"/>
-      <c r="M20" s="3" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="N20" s="3" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
       <c r="O20" s="1" t="n"/>
-      <c r="P20" s="12" t="inlineStr">
+      <c r="P20" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="Q20" s="12" t="inlineStr"/>
+      <c r="Q20" s="14" t="inlineStr"/>
       <c r="R20" s="1" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>anaconda</t>
-        </is>
-      </c>
+      <c r="A21" s="3" t="n"/>
       <c r="C21" s="1" t="n"/>
-      <c r="D21" s="18" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="E21" s="19" t="inlineStr"/>
       <c r="F21" s="1" t="n"/>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="G21" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="H21" s="5" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="1" t="n"/>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="K21" s="7" t="inlineStr"/>
+      <c r="K21" s="8" t="inlineStr"/>
       <c r="L21" s="1" t="n"/>
-      <c r="M21" s="3" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="N21" s="3" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
       <c r="O21" s="1" t="n"/>
-      <c r="P21" s="12" t="inlineStr">
+      <c r="P21" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="Q21" s="12" t="inlineStr"/>
+      <c r="Q21" s="14" t="inlineStr"/>
       <c r="R21" s="1" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>MASS OF THE FERMENTING DERGS</t>
-        </is>
-      </c>
+      <c r="A22" s="3" t="n"/>
       <c r="C22" s="1" t="n"/>
-      <c r="D22" s="20" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="E22" s="21" t="inlineStr"/>
       <c r="F22" s="1" t="n"/>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="H22" s="5" t="inlineStr"/>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="1" t="n"/>
-      <c r="J22" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="K22" s="7" t="inlineStr"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr"/>
       <c r="L22" s="1" t="n"/>
-      <c r="M22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="N22" s="3" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="N22" s="4" t="inlineStr"/>
       <c r="O22" s="1" t="n"/>
-      <c r="P22" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="Q22" s="12" t="inlineStr"/>
+      <c r="P22" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="Q22" s="14" t="inlineStr"/>
       <c r="R22" s="1" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" s="3" t="n"/>
       <c r="C23" s="1" t="n"/>
       <c r="F23" s="1" t="n"/>
-      <c r="G23" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="inlineStr"/>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="1" t="n"/>
-      <c r="J23" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="K23" s="7" t="inlineStr"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr"/>
       <c r="L23" s="1" t="n"/>
-      <c r="M23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="N23" s="3" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="N23" s="4" t="inlineStr"/>
       <c r="O23" s="1" t="n"/>
-      <c r="P23" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="Q23" s="12" t="inlineStr"/>
+      <c r="P23" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="Q23" s="14" t="inlineStr"/>
       <c r="R23" s="1" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="3" t="n"/>
       <c r="C24" s="1" t="n"/>
       <c r="F24" s="1" t="n"/>
-      <c r="G24" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="H24" s="5" t="inlineStr"/>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="1" t="n"/>
-      <c r="J24" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="K24" s="7" t="inlineStr"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr"/>
       <c r="L24" s="1" t="n"/>
-      <c r="M24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="N24" s="3" t="inlineStr"/>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr"/>
       <c r="O24" s="1" t="n"/>
-      <c r="P24" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="Q24" s="12" t="inlineStr"/>
+      <c r="P24" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="Q24" s="14" t="inlineStr"/>
       <c r="R24" s="1" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" s="3" t="n"/>
       <c r="C25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
-      <c r="G25" s="15" t="inlineStr">
+      <c r="G25" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
-      <c r="J25" s="15" t="inlineStr">
+      <c r="J25" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
       <c r="L25" s="1" t="n"/>
-      <c r="M25" s="15" t="inlineStr">
+      <c r="M25" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
       <c r="O25" s="1" t="n"/>
-      <c r="P25" s="15" t="inlineStr">
+      <c r="P25" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
@@ -1523,7 +1469,7 @@
       <c r="R25" s="1" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="3" t="n"/>
       <c r="C26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
       <c r="I26" s="1" t="n"/>
@@ -1532,7 +1478,7 @@
       <c r="R26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
+      <c r="A27" s="3" t="n"/>
       <c r="C27" s="1" t="n"/>
       <c r="F27" s="1" t="n"/>
       <c r="I27" s="1" t="n"/>
@@ -1541,48 +1487,48 @@
       <c r="R27" s="1" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="3" t="n"/>
       <c r="C28" s="1" t="n"/>
       <c r="F28" s="1" t="n"/>
-      <c r="G28" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19th Place Vote: </t>
-        </is>
-      </c>
-      <c r="H28" s="8" t="inlineStr">
+      <c r="G28" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14th Place Vote: </t>
+        </is>
+      </c>
+      <c r="H28" s="10" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
       <c r="I28" s="1" t="n"/>
-      <c r="J28" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15th Place Vote: </t>
-        </is>
-      </c>
-      <c r="K28" s="9" t="inlineStr">
+      <c r="J28" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11th Place Vote: </t>
+        </is>
+      </c>
+      <c r="K28" s="11" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
       <c r="L28" s="1" t="n"/>
-      <c r="M28" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11th Place Vote: </t>
-        </is>
-      </c>
-      <c r="N28" s="10" t="inlineStr">
+      <c r="M28" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8th Place Vote: </t>
+        </is>
+      </c>
+      <c r="N28" s="12" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
       <c r="O28" s="1" t="n"/>
-      <c r="P28" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6th Place Vote: </t>
-        </is>
-      </c>
-      <c r="Q28" s="11" t="inlineStr">
+      <c r="P28" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5th Place Vote: </t>
+        </is>
+      </c>
+      <c r="Q28" s="13" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
@@ -1590,226 +1536,226 @@
       <c r="R28" s="1" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" s="3" t="n"/>
       <c r="C29" s="1" t="n"/>
       <c r="F29" s="1" t="n"/>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="G29" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="H29" s="5" t="inlineStr"/>
+      <c r="H29" s="6" t="inlineStr"/>
       <c r="I29" s="1" t="n"/>
-      <c r="J29" s="7" t="inlineStr">
+      <c r="J29" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="K29" s="7" t="inlineStr"/>
+      <c r="K29" s="8" t="inlineStr"/>
       <c r="L29" s="1" t="n"/>
-      <c r="M29" s="3" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="N29" s="3" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr"/>
       <c r="O29" s="1" t="n"/>
-      <c r="P29" s="12" t="inlineStr">
+      <c r="P29" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="Q29" s="12" t="inlineStr"/>
+      <c r="Q29" s="14" t="inlineStr"/>
       <c r="R29" s="1" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="3" t="n"/>
       <c r="C30" s="1" t="n"/>
       <c r="F30" s="1" t="n"/>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="G30" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr"/>
+      <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="1" t="n"/>
-      <c r="J30" s="7" t="inlineStr">
+      <c r="J30" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="K30" s="7" t="inlineStr"/>
+      <c r="K30" s="8" t="inlineStr"/>
       <c r="L30" s="1" t="n"/>
-      <c r="M30" s="3" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="N30" s="3" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr"/>
       <c r="O30" s="1" t="n"/>
-      <c r="P30" s="12" t="inlineStr">
+      <c r="P30" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="Q30" s="12" t="inlineStr"/>
+      <c r="Q30" s="14" t="inlineStr"/>
       <c r="R30" s="1" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="3" t="n"/>
       <c r="C31" s="1" t="n"/>
       <c r="F31" s="1" t="n"/>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="G31" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="H31" s="5" t="inlineStr"/>
+      <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="1" t="n"/>
-      <c r="J31" s="7" t="inlineStr">
+      <c r="J31" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="K31" s="7" t="inlineStr"/>
+      <c r="K31" s="8" t="inlineStr"/>
       <c r="L31" s="1" t="n"/>
-      <c r="M31" s="3" t="inlineStr">
+      <c r="M31" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="N31" s="3" t="inlineStr"/>
+      <c r="N31" s="4" t="inlineStr"/>
       <c r="O31" s="1" t="n"/>
-      <c r="P31" s="12" t="inlineStr">
+      <c r="P31" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="Q31" s="12" t="inlineStr"/>
+      <c r="Q31" s="14" t="inlineStr"/>
       <c r="R31" s="1" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="3" t="n"/>
       <c r="C32" s="1" t="n"/>
       <c r="F32" s="1" t="n"/>
-      <c r="G32" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="H32" s="5" t="inlineStr"/>
+      <c r="G32" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="1" t="n"/>
-      <c r="J32" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="K32" s="7" t="inlineStr"/>
+      <c r="J32" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="K32" s="8" t="inlineStr"/>
       <c r="L32" s="1" t="n"/>
-      <c r="M32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="N32" s="3" t="inlineStr"/>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="N32" s="4" t="inlineStr"/>
       <c r="O32" s="1" t="n"/>
-      <c r="P32" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="Q32" s="12" t="inlineStr"/>
+      <c r="P32" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="Q32" s="14" t="inlineStr"/>
       <c r="R32" s="1" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
+      <c r="A33" s="3" t="n"/>
       <c r="C33" s="1" t="n"/>
       <c r="F33" s="1" t="n"/>
-      <c r="G33" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="H33" s="5" t="inlineStr"/>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="1" t="n"/>
-      <c r="J33" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="K33" s="7" t="inlineStr"/>
+      <c r="J33" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="K33" s="8" t="inlineStr"/>
       <c r="L33" s="1" t="n"/>
-      <c r="M33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="N33" s="3" t="inlineStr"/>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr"/>
       <c r="O33" s="1" t="n"/>
-      <c r="P33" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="Q33" s="12" t="inlineStr"/>
+      <c r="P33" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="Q33" s="14" t="inlineStr"/>
       <c r="R33" s="1" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" s="3" t="n"/>
       <c r="C34" s="1" t="n"/>
       <c r="F34" s="1" t="n"/>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="H34" s="5" t="inlineStr"/>
+      <c r="G34" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="H34" s="6" t="inlineStr"/>
       <c r="I34" s="1" t="n"/>
-      <c r="J34" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="K34" s="7" t="inlineStr"/>
+      <c r="J34" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="K34" s="8" t="inlineStr"/>
       <c r="L34" s="1" t="n"/>
-      <c r="M34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="N34" s="3" t="inlineStr"/>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="N34" s="4" t="inlineStr"/>
       <c r="O34" s="1" t="n"/>
-      <c r="P34" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="Q34" s="12" t="inlineStr"/>
+      <c r="P34" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="Q34" s="14" t="inlineStr"/>
       <c r="R34" s="1" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" s="3" t="n"/>
       <c r="C35" s="1" t="n"/>
       <c r="F35" s="1" t="n"/>
-      <c r="G35" s="15" t="inlineStr">
+      <c r="G35" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
       <c r="I35" s="1" t="n"/>
-      <c r="J35" s="15" t="inlineStr">
+      <c r="J35" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
       <c r="L35" s="1" t="n"/>
-      <c r="M35" s="15" t="inlineStr">
+      <c r="M35" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
       <c r="O35" s="1" t="n"/>
-      <c r="P35" s="15" t="inlineStr">
+      <c r="P35" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
@@ -1817,7 +1763,7 @@
       <c r="R35" s="1" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="3" t="n"/>
       <c r="C36" s="1" t="n"/>
       <c r="F36" s="1" t="n"/>
       <c r="I36" s="1" t="n"/>
@@ -1826,7 +1772,7 @@
       <c r="R36" s="1" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
+      <c r="A37" s="3" t="n"/>
       <c r="C37" s="1" t="n"/>
       <c r="F37" s="1" t="n"/>
       <c r="I37" s="1" t="n"/>
@@ -1835,283 +1781,130 @@
       <c r="R37" s="1" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="3" t="n"/>
       <c r="C38" s="1" t="n"/>
       <c r="F38" s="1" t="n"/>
-      <c r="G38" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18th Place Vote: </t>
-        </is>
-      </c>
-      <c r="H38" s="8" t="inlineStr">
+      <c r="I38" s="1" t="n"/>
+      <c r="L38" s="1" t="n"/>
+      <c r="O38" s="1" t="n"/>
+      <c r="P38" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4th Place Vote: </t>
+        </is>
+      </c>
+      <c r="Q38" s="13" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
-      <c r="I38" s="1" t="n"/>
-      <c r="J38" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14th Place Vote: </t>
-        </is>
-      </c>
-      <c r="K38" s="9" t="inlineStr">
-        <is>
-          <t>Explain Why:</t>
-        </is>
-      </c>
-      <c r="L38" s="1" t="n"/>
-      <c r="M38" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10th Place Vote: </t>
-        </is>
-      </c>
-      <c r="N38" s="10" t="inlineStr">
-        <is>
-          <t>Explain Why:</t>
-        </is>
-      </c>
-      <c r="O38" s="1" t="n"/>
-      <c r="P38" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5th Place Vote: </t>
-        </is>
-      </c>
-      <c r="Q38" s="11" t="inlineStr">
-        <is>
-          <t>Explain Why:</t>
-        </is>
-      </c>
       <c r="R38" s="1" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
+      <c r="A39" s="3" t="n"/>
       <c r="C39" s="1" t="n"/>
       <c r="F39" s="1" t="n"/>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="I39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="O39" s="1" t="n"/>
+      <c r="P39" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="H39" s="5" t="inlineStr"/>
-      <c r="I39" s="1" t="n"/>
-      <c r="J39" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">joe's Vote: </t>
-        </is>
-      </c>
-      <c r="K39" s="7" t="inlineStr"/>
-      <c r="L39" s="1" t="n"/>
-      <c r="M39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">joe's Vote: </t>
-        </is>
-      </c>
-      <c r="N39" s="3" t="inlineStr"/>
-      <c r="O39" s="1" t="n"/>
-      <c r="P39" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">joe's Vote: </t>
-        </is>
-      </c>
-      <c r="Q39" s="12" t="inlineStr"/>
+      <c r="Q39" s="14" t="inlineStr"/>
       <c r="R39" s="1" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="3" t="n"/>
       <c r="C40" s="1" t="n"/>
       <c r="F40" s="1" t="n"/>
-      <c r="G40" s="5" t="inlineStr">
+      <c r="I40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+      <c r="O40" s="1" t="n"/>
+      <c r="P40" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="H40" s="5" t="inlineStr"/>
-      <c r="I40" s="1" t="n"/>
-      <c r="J40" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">jane's Vote: </t>
-        </is>
-      </c>
-      <c r="K40" s="7" t="inlineStr"/>
-      <c r="L40" s="1" t="n"/>
-      <c r="M40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">jane's Vote: </t>
-        </is>
-      </c>
-      <c r="N40" s="3" t="inlineStr"/>
-      <c r="O40" s="1" t="n"/>
-      <c r="P40" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">jane's Vote: </t>
-        </is>
-      </c>
-      <c r="Q40" s="12" t="inlineStr"/>
+      <c r="Q40" s="14" t="inlineStr"/>
       <c r="R40" s="1" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
+      <c r="A41" s="3" t="n"/>
       <c r="C41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="I41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="O41" s="1" t="n"/>
+      <c r="P41" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="H41" s="5" t="inlineStr"/>
-      <c r="I41" s="1" t="n"/>
-      <c r="J41" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sasha velour's Vote: </t>
-        </is>
-      </c>
-      <c r="K41" s="7" t="inlineStr"/>
-      <c r="L41" s="1" t="n"/>
-      <c r="M41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sasha velour's Vote: </t>
-        </is>
-      </c>
-      <c r="N41" s="3" t="inlineStr"/>
-      <c r="O41" s="1" t="n"/>
-      <c r="P41" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sasha velour's Vote: </t>
-        </is>
-      </c>
-      <c r="Q41" s="12" t="inlineStr"/>
+      <c r="Q41" s="14" t="inlineStr"/>
       <c r="R41" s="1" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" s="3" t="n"/>
       <c r="C42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
-      <c r="G42" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="H42" s="5" t="inlineStr"/>
       <c r="I42" s="1" t="n"/>
-      <c r="J42" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="K42" s="7" t="inlineStr"/>
       <c r="L42" s="1" t="n"/>
-      <c r="M42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="N42" s="3" t="inlineStr"/>
       <c r="O42" s="1" t="n"/>
-      <c r="P42" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="Q42" s="12" t="inlineStr"/>
+      <c r="P42" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="Q42" s="14" t="inlineStr"/>
       <c r="R42" s="1" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" s="3" t="n"/>
       <c r="C43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
-      <c r="G43" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="H43" s="5" t="inlineStr"/>
       <c r="I43" s="1" t="n"/>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr"/>
       <c r="L43" s="1" t="n"/>
-      <c r="M43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="N43" s="3" t="inlineStr"/>
       <c r="O43" s="1" t="n"/>
-      <c r="P43" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="Q43" s="12" t="inlineStr"/>
+      <c r="P43" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="Q43" s="14" t="inlineStr"/>
       <c r="R43" s="1" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="3" t="n"/>
       <c r="C44" s="1" t="n"/>
       <c r="F44" s="1" t="n"/>
-      <c r="G44" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="H44" s="5" t="inlineStr"/>
       <c r="I44" s="1" t="n"/>
-      <c r="J44" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="K44" s="7" t="inlineStr"/>
       <c r="L44" s="1" t="n"/>
-      <c r="M44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="N44" s="3" t="inlineStr"/>
       <c r="O44" s="1" t="n"/>
-      <c r="P44" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="Q44" s="12" t="inlineStr"/>
+      <c r="P44" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="Q44" s="14" t="inlineStr"/>
       <c r="R44" s="1" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" s="3" t="n"/>
       <c r="C45" s="1" t="n"/>
       <c r="F45" s="1" t="n"/>
-      <c r="G45" s="15" t="inlineStr">
+      <c r="I45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+      <c r="O45" s="1" t="n"/>
+      <c r="P45" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
-      <c r="I45" s="1" t="n"/>
-      <c r="J45" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eliminated Song: </t>
-        </is>
-      </c>
-      <c r="L45" s="1" t="n"/>
-      <c r="M45" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eliminated Song: </t>
-        </is>
-      </c>
-      <c r="O45" s="1" t="n"/>
-      <c r="P45" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eliminated Song: </t>
-        </is>
-      </c>
       <c r="R45" s="1" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
+      <c r="A46" s="3" t="n"/>
       <c r="C46" s="1" t="n"/>
       <c r="F46" s="1" t="n"/>
       <c r="I46" s="1" t="n"/>
@@ -2120,7 +1913,7 @@
       <c r="R46" s="1" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" s="3" t="n"/>
       <c r="C47" s="1" t="n"/>
       <c r="F47" s="1" t="n"/>
       <c r="I47" s="1" t="n"/>
@@ -2129,181 +1922,130 @@
       <c r="R47" s="1" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
+      <c r="A48" s="3" t="n"/>
       <c r="C48" s="1" t="n"/>
       <c r="F48" s="1" t="n"/>
       <c r="I48" s="1" t="n"/>
       <c r="L48" s="1" t="n"/>
-      <c r="M48" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9th Place Vote: </t>
-        </is>
-      </c>
-      <c r="N48" s="10" t="inlineStr">
+      <c r="O48" s="1" t="n"/>
+      <c r="P48" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3rd Place Vote: </t>
+        </is>
+      </c>
+      <c r="Q48" s="23" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
       </c>
-      <c r="O48" s="1" t="n"/>
-      <c r="P48" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4th Place Vote: </t>
-        </is>
-      </c>
-      <c r="Q48" s="11" t="inlineStr">
-        <is>
-          <t>Explain Why:</t>
-        </is>
-      </c>
       <c r="R48" s="1" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="3" t="n"/>
       <c r="C49" s="1" t="n"/>
       <c r="F49" s="1" t="n"/>
       <c r="I49" s="1" t="n"/>
       <c r="L49" s="1" t="n"/>
-      <c r="M49" s="3" t="inlineStr">
+      <c r="O49" s="1" t="n"/>
+      <c r="P49" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="1" t="n"/>
-      <c r="P49" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">joe's Vote: </t>
-        </is>
-      </c>
-      <c r="Q49" s="12" t="inlineStr"/>
+      <c r="Q49" s="17" t="inlineStr"/>
       <c r="R49" s="1" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
+      <c r="A50" s="3" t="n"/>
       <c r="C50" s="1" t="n"/>
       <c r="F50" s="1" t="n"/>
       <c r="I50" s="1" t="n"/>
       <c r="L50" s="1" t="n"/>
-      <c r="M50" s="3" t="inlineStr">
+      <c r="O50" s="1" t="n"/>
+      <c r="P50" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="1" t="n"/>
-      <c r="P50" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">jane's Vote: </t>
-        </is>
-      </c>
-      <c r="Q50" s="12" t="inlineStr"/>
+      <c r="Q50" s="17" t="inlineStr"/>
       <c r="R50" s="1" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="3" t="n"/>
       <c r="C51" s="1" t="n"/>
       <c r="F51" s="1" t="n"/>
       <c r="I51" s="1" t="n"/>
       <c r="L51" s="1" t="n"/>
-      <c r="M51" s="3" t="inlineStr">
+      <c r="O51" s="1" t="n"/>
+      <c r="P51" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="N51" s="3" t="inlineStr"/>
-      <c r="O51" s="1" t="n"/>
-      <c r="P51" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sasha velour's Vote: </t>
-        </is>
-      </c>
-      <c r="Q51" s="12" t="inlineStr"/>
+      <c r="Q51" s="17" t="inlineStr"/>
       <c r="R51" s="1" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
+      <c r="A52" s="3" t="n"/>
       <c r="C52" s="1" t="n"/>
       <c r="F52" s="1" t="n"/>
       <c r="I52" s="1" t="n"/>
       <c r="L52" s="1" t="n"/>
-      <c r="M52" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="N52" s="3" t="inlineStr"/>
       <c r="O52" s="1" t="n"/>
-      <c r="P52" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="Q52" s="12" t="inlineStr"/>
+      <c r="P52" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="Q52" s="17" t="inlineStr"/>
       <c r="R52" s="1" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
+      <c r="A53" s="3" t="n"/>
       <c r="C53" s="1" t="n"/>
       <c r="F53" s="1" t="n"/>
       <c r="I53" s="1" t="n"/>
       <c r="L53" s="1" t="n"/>
-      <c r="M53" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="N53" s="3" t="inlineStr"/>
       <c r="O53" s="1" t="n"/>
-      <c r="P53" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="Q53" s="12" t="inlineStr"/>
+      <c r="P53" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="Q53" s="17" t="inlineStr"/>
       <c r="R53" s="1" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
+      <c r="A54" s="3" t="n"/>
       <c r="C54" s="1" t="n"/>
       <c r="F54" s="1" t="n"/>
       <c r="I54" s="1" t="n"/>
       <c r="L54" s="1" t="n"/>
-      <c r="M54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="N54" s="3" t="inlineStr"/>
       <c r="O54" s="1" t="n"/>
-      <c r="P54" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="Q54" s="12" t="inlineStr"/>
+      <c r="P54" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="Q54" s="17" t="inlineStr"/>
       <c r="R54" s="1" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
+      <c r="A55" s="3" t="n"/>
       <c r="C55" s="1" t="n"/>
       <c r="F55" s="1" t="n"/>
       <c r="I55" s="1" t="n"/>
       <c r="L55" s="1" t="n"/>
-      <c r="M55" s="15" t="inlineStr">
+      <c r="O55" s="1" t="n"/>
+      <c r="P55" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
       </c>
-      <c r="O55" s="1" t="n"/>
-      <c r="P55" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eliminated Song: </t>
-        </is>
-      </c>
       <c r="R55" s="1" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
+      <c r="A56" s="3" t="n"/>
       <c r="C56" s="1" t="n"/>
       <c r="F56" s="1" t="n"/>
       <c r="I56" s="1" t="n"/>
@@ -2312,7 +2054,7 @@
       <c r="R56" s="1" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
+      <c r="A57" s="3" t="n"/>
       <c r="C57" s="1" t="n"/>
       <c r="F57" s="1" t="n"/>
       <c r="I57" s="1" t="n"/>
@@ -2321,18 +2063,18 @@
       <c r="R57" s="1" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" s="3" t="n"/>
       <c r="C58" s="1" t="n"/>
       <c r="F58" s="1" t="n"/>
       <c r="I58" s="1" t="n"/>
       <c r="L58" s="1" t="n"/>
       <c r="O58" s="1" t="n"/>
-      <c r="P58" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd Place Vote: </t>
-        </is>
-      </c>
-      <c r="Q58" s="22" t="inlineStr">
+      <c r="P58" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2nd Place Vote: </t>
+        </is>
+      </c>
+      <c r="Q58" s="24" t="inlineStr">
         <is>
           <t>Explain Why:</t>
         </is>
@@ -2340,103 +2082,103 @@
       <c r="R58" s="1" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
+      <c r="A59" s="3" t="n"/>
       <c r="C59" s="1" t="n"/>
       <c r="F59" s="1" t="n"/>
       <c r="I59" s="1" t="n"/>
       <c r="L59" s="1" t="n"/>
       <c r="O59" s="1" t="n"/>
-      <c r="P59" s="17" t="inlineStr">
+      <c r="P59" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">joe's Vote: </t>
         </is>
       </c>
-      <c r="Q59" s="17" t="inlineStr"/>
+      <c r="Q59" s="20" t="inlineStr"/>
       <c r="R59" s="1" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n"/>
+      <c r="A60" s="3" t="n"/>
       <c r="C60" s="1" t="n"/>
       <c r="F60" s="1" t="n"/>
       <c r="I60" s="1" t="n"/>
       <c r="L60" s="1" t="n"/>
       <c r="O60" s="1" t="n"/>
-      <c r="P60" s="17" t="inlineStr">
+      <c r="P60" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">jane's Vote: </t>
         </is>
       </c>
-      <c r="Q60" s="17" t="inlineStr"/>
+      <c r="Q60" s="20" t="inlineStr"/>
       <c r="R60" s="1" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
+      <c r="A61" s="3" t="n"/>
       <c r="C61" s="1" t="n"/>
       <c r="F61" s="1" t="n"/>
       <c r="I61" s="1" t="n"/>
       <c r="L61" s="1" t="n"/>
       <c r="O61" s="1" t="n"/>
-      <c r="P61" s="17" t="inlineStr">
+      <c r="P61" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">sasha velour's Vote: </t>
         </is>
       </c>
-      <c r="Q61" s="17" t="inlineStr"/>
+      <c r="Q61" s="20" t="inlineStr"/>
       <c r="R61" s="1" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n"/>
+      <c r="A62" s="3" t="n"/>
       <c r="C62" s="1" t="n"/>
       <c r="F62" s="1" t="n"/>
       <c r="I62" s="1" t="n"/>
       <c r="L62" s="1" t="n"/>
       <c r="O62" s="1" t="n"/>
-      <c r="P62" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="Q62" s="17" t="inlineStr"/>
+      <c r="P62" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha fierce's Vote: </t>
+        </is>
+      </c>
+      <c r="Q62" s="20" t="inlineStr"/>
       <c r="R62" s="1" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n"/>
+      <c r="A63" s="3" t="n"/>
       <c r="C63" s="1" t="n"/>
       <c r="F63" s="1" t="n"/>
       <c r="I63" s="1" t="n"/>
       <c r="L63" s="1" t="n"/>
       <c r="O63" s="1" t="n"/>
-      <c r="P63" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="Q63" s="17" t="inlineStr"/>
+      <c r="P63" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha obama's Vote: </t>
+        </is>
+      </c>
+      <c r="Q63" s="20" t="inlineStr"/>
       <c r="R63" s="1" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
+      <c r="A64" s="3" t="n"/>
       <c r="C64" s="1" t="n"/>
       <c r="F64" s="1" t="n"/>
       <c r="I64" s="1" t="n"/>
       <c r="L64" s="1" t="n"/>
       <c r="O64" s="1" t="n"/>
-      <c r="P64" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="Q64" s="17" t="inlineStr"/>
+      <c r="P64" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sasha grey's Vote: </t>
+        </is>
+      </c>
+      <c r="Q64" s="20" t="inlineStr"/>
       <c r="R64" s="1" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
+      <c r="A65" s="3" t="n"/>
       <c r="C65" s="1" t="n"/>
       <c r="F65" s="1" t="n"/>
       <c r="I65" s="1" t="n"/>
       <c r="L65" s="1" t="n"/>
       <c r="O65" s="1" t="n"/>
-      <c r="P65" s="15" t="inlineStr">
+      <c r="P65" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Eliminated Song: </t>
         </is>
@@ -2444,7 +2186,7 @@
       <c r="R65" s="1" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
+      <c r="A66" s="3" t="n"/>
       <c r="C66" s="1" t="n"/>
       <c r="F66" s="1" t="n"/>
       <c r="I66" s="1" t="n"/>
@@ -2453,7 +2195,7 @@
       <c r="R66" s="1" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
+      <c r="A67" s="3" t="n"/>
       <c r="C67" s="1" t="n"/>
       <c r="F67" s="1" t="n"/>
       <c r="I67" s="1" t="n"/>
@@ -2462,130 +2204,85 @@
       <c r="R67" s="1" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n"/>
+      <c r="A68" s="3" t="n"/>
       <c r="C68" s="1" t="n"/>
       <c r="F68" s="1" t="n"/>
       <c r="I68" s="1" t="n"/>
       <c r="L68" s="1" t="n"/>
       <c r="O68" s="1" t="n"/>
-      <c r="P68" s="23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2nd Place Vote: </t>
-        </is>
-      </c>
-      <c r="Q68" s="23" t="inlineStr">
-        <is>
-          <t>Explain Why:</t>
-        </is>
-      </c>
+      <c r="P68" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1st Place Winner: </t>
+        </is>
+      </c>
+      <c r="Q68" s="21" t="n"/>
       <c r="R68" s="1" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
+      <c r="A69" s="3" t="n"/>
       <c r="C69" s="1" t="n"/>
       <c r="F69" s="1" t="n"/>
       <c r="I69" s="1" t="n"/>
       <c r="L69" s="1" t="n"/>
       <c r="O69" s="1" t="n"/>
-      <c r="P69" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">joe's Vote: </t>
-        </is>
-      </c>
-      <c r="Q69" s="19" t="inlineStr"/>
       <c r="R69" s="1" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
+      <c r="A70" s="3" t="n"/>
       <c r="C70" s="1" t="n"/>
       <c r="F70" s="1" t="n"/>
       <c r="I70" s="1" t="n"/>
       <c r="L70" s="1" t="n"/>
       <c r="O70" s="1" t="n"/>
-      <c r="P70" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">jane's Vote: </t>
-        </is>
-      </c>
-      <c r="Q70" s="19" t="inlineStr"/>
       <c r="R70" s="1" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
+      <c r="A71" s="3" t="n"/>
       <c r="C71" s="1" t="n"/>
       <c r="F71" s="1" t="n"/>
       <c r="I71" s="1" t="n"/>
       <c r="L71" s="1" t="n"/>
       <c r="O71" s="1" t="n"/>
-      <c r="P71" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sasha velour's Vote: </t>
-        </is>
-      </c>
-      <c r="Q71" s="19" t="inlineStr"/>
       <c r="R71" s="1" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n"/>
+      <c r="A72" s="3" t="n"/>
       <c r="C72" s="1" t="n"/>
       <c r="F72" s="1" t="n"/>
       <c r="I72" s="1" t="n"/>
       <c r="L72" s="1" t="n"/>
       <c r="O72" s="1" t="n"/>
-      <c r="P72" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me's Vote: </t>
-        </is>
-      </c>
-      <c r="Q72" s="19" t="inlineStr"/>
       <c r="R72" s="1" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
+      <c r="A73" s="3" t="n"/>
       <c r="C73" s="1" t="n"/>
       <c r="F73" s="1" t="n"/>
       <c r="I73" s="1" t="n"/>
       <c r="L73" s="1" t="n"/>
       <c r="O73" s="1" t="n"/>
-      <c r="P73" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">you's Vote: </t>
-        </is>
-      </c>
-      <c r="Q73" s="19" t="inlineStr"/>
       <c r="R73" s="1" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n"/>
+      <c r="A74" s="3" t="n"/>
       <c r="C74" s="1" t="n"/>
       <c r="F74" s="1" t="n"/>
       <c r="I74" s="1" t="n"/>
       <c r="L74" s="1" t="n"/>
       <c r="O74" s="1" t="n"/>
-      <c r="P74" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">them's Vote: </t>
-        </is>
-      </c>
-      <c r="Q74" s="19" t="inlineStr"/>
       <c r="R74" s="1" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n"/>
+      <c r="A75" s="3" t="n"/>
       <c r="C75" s="1" t="n"/>
       <c r="F75" s="1" t="n"/>
       <c r="I75" s="1" t="n"/>
       <c r="L75" s="1" t="n"/>
       <c r="O75" s="1" t="n"/>
-      <c r="P75" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eliminated Song: </t>
-        </is>
-      </c>
       <c r="R75" s="1" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
+      <c r="A76" s="3" t="n"/>
       <c r="C76" s="1" t="n"/>
       <c r="F76" s="1" t="n"/>
       <c r="I76" s="1" t="n"/>
@@ -2594,7 +2291,7 @@
       <c r="R76" s="1" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n"/>
+      <c r="A77" s="3" t="n"/>
       <c r="C77" s="1" t="n"/>
       <c r="F77" s="1" t="n"/>
       <c r="I77" s="1" t="n"/>
@@ -2603,22 +2300,16 @@
       <c r="R77" s="1" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
+      <c r="A78" s="3" t="n"/>
       <c r="C78" s="1" t="n"/>
       <c r="F78" s="1" t="n"/>
       <c r="I78" s="1" t="n"/>
       <c r="L78" s="1" t="n"/>
       <c r="O78" s="1" t="n"/>
-      <c r="P78" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st Place Winner: </t>
-        </is>
-      </c>
-      <c r="Q78" s="20" t="n"/>
       <c r="R78" s="1" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
+      <c r="A79" s="3" t="n"/>
       <c r="C79" s="1" t="n"/>
       <c r="F79" s="1" t="n"/>
       <c r="I79" s="1" t="n"/>
@@ -2627,7 +2318,7 @@
       <c r="R79" s="1" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n"/>
+      <c r="A80" s="3" t="n"/>
       <c r="C80" s="1" t="n"/>
       <c r="F80" s="1" t="n"/>
       <c r="I80" s="1" t="n"/>
@@ -2636,7 +2327,7 @@
       <c r="R80" s="1" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
+      <c r="A81" s="3" t="n"/>
       <c r="C81" s="1" t="n"/>
       <c r="F81" s="1" t="n"/>
       <c r="I81" s="1" t="n"/>
@@ -2645,7 +2336,7 @@
       <c r="R81" s="1" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n"/>
+      <c r="A82" s="3" t="n"/>
       <c r="C82" s="1" t="n"/>
       <c r="F82" s="1" t="n"/>
       <c r="I82" s="1" t="n"/>
@@ -2654,7 +2345,7 @@
       <c r="R82" s="1" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n"/>
+      <c r="A83" s="3" t="n"/>
       <c r="C83" s="1" t="n"/>
       <c r="F83" s="1" t="n"/>
       <c r="I83" s="1" t="n"/>
@@ -2663,7 +2354,7 @@
       <c r="R83" s="1" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
+      <c r="A84" s="3" t="n"/>
       <c r="C84" s="1" t="n"/>
       <c r="F84" s="1" t="n"/>
       <c r="I84" s="1" t="n"/>
@@ -2672,7 +2363,7 @@
       <c r="R84" s="1" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n"/>
+      <c r="A85" s="3" t="n"/>
       <c r="C85" s="1" t="n"/>
       <c r="F85" s="1" t="n"/>
       <c r="I85" s="1" t="n"/>
@@ -2681,7 +2372,7 @@
       <c r="R85" s="1" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n"/>
+      <c r="A86" s="3" t="n"/>
       <c r="C86" s="1" t="n"/>
       <c r="F86" s="1" t="n"/>
       <c r="I86" s="1" t="n"/>
@@ -2690,7 +2381,7 @@
       <c r="R86" s="1" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n"/>
+      <c r="A87" s="3" t="n"/>
       <c r="C87" s="1" t="n"/>
       <c r="F87" s="1" t="n"/>
       <c r="I87" s="1" t="n"/>
@@ -2699,7 +2390,7 @@
       <c r="R87" s="1" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n"/>
+      <c r="A88" s="3" t="n"/>
       <c r="C88" s="1" t="n"/>
       <c r="F88" s="1" t="n"/>
       <c r="I88" s="1" t="n"/>
@@ -2708,7 +2399,7 @@
       <c r="R88" s="1" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n"/>
+      <c r="A89" s="3" t="n"/>
       <c r="C89" s="1" t="n"/>
       <c r="F89" s="1" t="n"/>
       <c r="I89" s="1" t="n"/>
@@ -2717,7 +2408,7 @@
       <c r="R89" s="1" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n"/>
+      <c r="A90" s="3" t="n"/>
       <c r="C90" s="1" t="n"/>
       <c r="F90" s="1" t="n"/>
       <c r="I90" s="1" t="n"/>
@@ -2726,7 +2417,7 @@
       <c r="R90" s="1" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n"/>
+      <c r="A91" s="3" t="n"/>
       <c r="C91" s="1" t="n"/>
       <c r="F91" s="1" t="n"/>
       <c r="I91" s="1" t="n"/>
@@ -2735,7 +2426,7 @@
       <c r="R91" s="1" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n"/>
+      <c r="A92" s="3" t="n"/>
       <c r="C92" s="1" t="n"/>
       <c r="F92" s="1" t="n"/>
       <c r="I92" s="1" t="n"/>
@@ -2744,7 +2435,7 @@
       <c r="R92" s="1" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n"/>
+      <c r="A93" s="3" t="n"/>
       <c r="C93" s="1" t="n"/>
       <c r="F93" s="1" t="n"/>
       <c r="I93" s="1" t="n"/>
@@ -2753,7 +2444,7 @@
       <c r="R93" s="1" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
+      <c r="A94" s="3" t="n"/>
       <c r="C94" s="1" t="n"/>
       <c r="F94" s="1" t="n"/>
       <c r="I94" s="1" t="n"/>
@@ -2762,7 +2453,7 @@
       <c r="R94" s="1" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n"/>
+      <c r="A95" s="3" t="n"/>
       <c r="C95" s="1" t="n"/>
       <c r="F95" s="1" t="n"/>
       <c r="I95" s="1" t="n"/>
@@ -2771,7 +2462,7 @@
       <c r="R95" s="1" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n"/>
+      <c r="A96" s="3" t="n"/>
       <c r="C96" s="1" t="n"/>
       <c r="F96" s="1" t="n"/>
       <c r="I96" s="1" t="n"/>
@@ -2780,7 +2471,7 @@
       <c r="R96" s="1" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n"/>
+      <c r="A97" s="3" t="n"/>
       <c r="C97" s="1" t="n"/>
       <c r="F97" s="1" t="n"/>
       <c r="I97" s="1" t="n"/>
@@ -2789,7 +2480,7 @@
       <c r="R97" s="1" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
+      <c r="A98" s="3" t="n"/>
       <c r="C98" s="1" t="n"/>
       <c r="F98" s="1" t="n"/>
       <c r="I98" s="1" t="n"/>
@@ -2798,7 +2489,7 @@
       <c r="R98" s="1" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n"/>
+      <c r="A99" s="3" t="n"/>
       <c r="C99" s="1" t="n"/>
       <c r="F99" s="1" t="n"/>
       <c r="I99" s="1" t="n"/>
@@ -2807,7 +2498,7 @@
       <c r="R99" s="1" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n"/>
+      <c r="A100" s="3" t="n"/>
       <c r="C100" s="1" t="n"/>
       <c r="F100" s="1" t="n"/>
       <c r="I100" s="1" t="n"/>
@@ -2816,7 +2507,7 @@
       <c r="R100" s="1" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
+      <c r="A101" s="3" t="n"/>
       <c r="C101" s="1" t="n"/>
       <c r="F101" s="1" t="n"/>
       <c r="I101" s="1" t="n"/>
@@ -2825,7 +2516,7 @@
       <c r="R101" s="1" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n"/>
+      <c r="A102" s="3" t="n"/>
       <c r="C102" s="1" t="n"/>
       <c r="F102" s="1" t="n"/>
       <c r="I102" s="1" t="n"/>
@@ -2834,7 +2525,7 @@
       <c r="R102" s="1" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
+      <c r="A103" s="3" t="n"/>
       <c r="C103" s="1" t="n"/>
       <c r="F103" s="1" t="n"/>
       <c r="I103" s="1" t="n"/>
@@ -2843,7 +2534,7 @@
       <c r="R103" s="1" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n"/>
+      <c r="A104" s="3" t="n"/>
       <c r="C104" s="1" t="n"/>
       <c r="F104" s="1" t="n"/>
       <c r="I104" s="1" t="n"/>
@@ -2852,7 +2543,7 @@
       <c r="R104" s="1" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n"/>
+      <c r="A105" s="3" t="n"/>
       <c r="C105" s="1" t="n"/>
       <c r="F105" s="1" t="n"/>
       <c r="I105" s="1" t="n"/>
@@ -2861,7 +2552,7 @@
       <c r="R105" s="1" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n"/>
+      <c r="A106" s="3" t="n"/>
       <c r="C106" s="1" t="n"/>
       <c r="F106" s="1" t="n"/>
       <c r="I106" s="1" t="n"/>
@@ -2870,7 +2561,7 @@
       <c r="R106" s="1" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n"/>
+      <c r="A107" s="3" t="n"/>
       <c r="C107" s="1" t="n"/>
       <c r="F107" s="1" t="n"/>
       <c r="I107" s="1" t="n"/>
@@ -2879,7 +2570,7 @@
       <c r="R107" s="1" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n"/>
+      <c r="A108" s="3" t="n"/>
       <c r="C108" s="1" t="n"/>
       <c r="F108" s="1" t="n"/>
       <c r="I108" s="1" t="n"/>
@@ -2888,7 +2579,7 @@
       <c r="R108" s="1" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n"/>
+      <c r="A109" s="3" t="n"/>
       <c r="C109" s="1" t="n"/>
       <c r="F109" s="1" t="n"/>
       <c r="I109" s="1" t="n"/>
@@ -2897,7 +2588,7 @@
       <c r="R109" s="1" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n"/>
+      <c r="A110" s="3" t="n"/>
       <c r="C110" s="1" t="n"/>
       <c r="F110" s="1" t="n"/>
       <c r="I110" s="1" t="n"/>
@@ -2906,7 +2597,7 @@
       <c r="R110" s="1" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n"/>
+      <c r="A111" s="3" t="n"/>
       <c r="C111" s="1" t="n"/>
       <c r="F111" s="1" t="n"/>
       <c r="I111" s="1" t="n"/>
@@ -2915,7 +2606,7 @@
       <c r="R111" s="1" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n"/>
+      <c r="A112" s="3" t="n"/>
       <c r="C112" s="1" t="n"/>
       <c r="F112" s="1" t="n"/>
       <c r="I112" s="1" t="n"/>
@@ -2924,7 +2615,7 @@
       <c r="R112" s="1" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n"/>
+      <c r="A113" s="3" t="n"/>
       <c r="C113" s="1" t="n"/>
       <c r="F113" s="1" t="n"/>
       <c r="I113" s="1" t="n"/>
@@ -2933,7 +2624,7 @@
       <c r="R113" s="1" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n"/>
+      <c r="A114" s="3" t="n"/>
       <c r="C114" s="1" t="n"/>
       <c r="F114" s="1" t="n"/>
       <c r="I114" s="1" t="n"/>
@@ -2942,7 +2633,7 @@
       <c r="R114" s="1" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n"/>
+      <c r="A115" s="3" t="n"/>
       <c r="C115" s="1" t="n"/>
       <c r="F115" s="1" t="n"/>
       <c r="I115" s="1" t="n"/>
@@ -2951,7 +2642,7 @@
       <c r="R115" s="1" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n"/>
+      <c r="A116" s="3" t="n"/>
       <c r="C116" s="1" t="n"/>
       <c r="F116" s="1" t="n"/>
       <c r="I116" s="1" t="n"/>
@@ -2960,7 +2651,7 @@
       <c r="R116" s="1" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n"/>
+      <c r="A117" s="3" t="n"/>
       <c r="C117" s="1" t="n"/>
       <c r="F117" s="1" t="n"/>
       <c r="I117" s="1" t="n"/>
@@ -2969,7 +2660,7 @@
       <c r="R117" s="1" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n"/>
+      <c r="A118" s="3" t="n"/>
       <c r="C118" s="1" t="n"/>
       <c r="F118" s="1" t="n"/>
       <c r="I118" s="1" t="n"/>
@@ -2978,7 +2669,7 @@
       <c r="R118" s="1" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n"/>
+      <c r="A119" s="3" t="n"/>
       <c r="C119" s="1" t="n"/>
       <c r="F119" s="1" t="n"/>
       <c r="I119" s="1" t="n"/>
@@ -2987,7 +2678,7 @@
       <c r="R119" s="1" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n"/>
+      <c r="A120" s="3" t="n"/>
       <c r="C120" s="1" t="n"/>
       <c r="F120" s="1" t="n"/>
       <c r="I120" s="1" t="n"/>
@@ -2996,7 +2687,7 @@
       <c r="R120" s="1" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n"/>
+      <c r="A121" s="3" t="n"/>
       <c r="C121" s="1" t="n"/>
       <c r="F121" s="1" t="n"/>
       <c r="I121" s="1" t="n"/>
@@ -3005,7 +2696,7 @@
       <c r="R121" s="1" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n"/>
+      <c r="A122" s="3" t="n"/>
       <c r="C122" s="1" t="n"/>
       <c r="F122" s="1" t="n"/>
       <c r="I122" s="1" t="n"/>
@@ -3014,7 +2705,7 @@
       <c r="R122" s="1" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n"/>
+      <c r="A123" s="3" t="n"/>
       <c r="C123" s="1" t="n"/>
       <c r="F123" s="1" t="n"/>
       <c r="I123" s="1" t="n"/>
@@ -3023,7 +2714,7 @@
       <c r="R123" s="1" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n"/>
+      <c r="A124" s="3" t="n"/>
       <c r="C124" s="1" t="n"/>
       <c r="F124" s="1" t="n"/>
       <c r="I124" s="1" t="n"/>
@@ -3032,7 +2723,7 @@
       <c r="R124" s="1" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n"/>
+      <c r="A125" s="3" t="n"/>
       <c r="C125" s="1" t="n"/>
       <c r="F125" s="1" t="n"/>
       <c r="I125" s="1" t="n"/>
@@ -3041,7 +2732,7 @@
       <c r="R125" s="1" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n"/>
+      <c r="A126" s="3" t="n"/>
       <c r="C126" s="1" t="n"/>
       <c r="F126" s="1" t="n"/>
       <c r="I126" s="1" t="n"/>
@@ -3050,7 +2741,7 @@
       <c r="R126" s="1" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n"/>
+      <c r="A127" s="3" t="n"/>
       <c r="C127" s="1" t="n"/>
       <c r="F127" s="1" t="n"/>
       <c r="I127" s="1" t="n"/>
@@ -3059,7 +2750,7 @@
       <c r="R127" s="1" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n"/>
+      <c r="A128" s="3" t="n"/>
       <c r="C128" s="1" t="n"/>
       <c r="F128" s="1" t="n"/>
       <c r="I128" s="1" t="n"/>
@@ -3068,7 +2759,7 @@
       <c r="R128" s="1" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n"/>
+      <c r="A129" s="3" t="n"/>
       <c r="C129" s="1" t="n"/>
       <c r="F129" s="1" t="n"/>
       <c r="I129" s="1" t="n"/>
@@ -3077,7 +2768,7 @@
       <c r="R129" s="1" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n"/>
+      <c r="A130" s="3" t="n"/>
       <c r="C130" s="1" t="n"/>
       <c r="F130" s="1" t="n"/>
       <c r="I130" s="1" t="n"/>
@@ -3086,7 +2777,7 @@
       <c r="R130" s="1" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n"/>
+      <c r="A131" s="3" t="n"/>
       <c r="C131" s="1" t="n"/>
       <c r="F131" s="1" t="n"/>
       <c r="I131" s="1" t="n"/>
@@ -3095,7 +2786,7 @@
       <c r="R131" s="1" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n"/>
+      <c r="A132" s="3" t="n"/>
       <c r="C132" s="1" t="n"/>
       <c r="F132" s="1" t="n"/>
       <c r="I132" s="1" t="n"/>
@@ -3104,7 +2795,7 @@
       <c r="R132" s="1" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n"/>
+      <c r="A133" s="3" t="n"/>
       <c r="C133" s="1" t="n"/>
       <c r="F133" s="1" t="n"/>
       <c r="I133" s="1" t="n"/>
@@ -3113,7 +2804,7 @@
       <c r="R133" s="1" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n"/>
+      <c r="A134" s="3" t="n"/>
       <c r="C134" s="1" t="n"/>
       <c r="F134" s="1" t="n"/>
       <c r="I134" s="1" t="n"/>
@@ -3122,7 +2813,7 @@
       <c r="R134" s="1" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n"/>
+      <c r="A135" s="3" t="n"/>
       <c r="C135" s="1" t="n"/>
       <c r="F135" s="1" t="n"/>
       <c r="I135" s="1" t="n"/>
@@ -3131,7 +2822,7 @@
       <c r="R135" s="1" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n"/>
+      <c r="A136" s="3" t="n"/>
       <c r="C136" s="1" t="n"/>
       <c r="F136" s="1" t="n"/>
       <c r="I136" s="1" t="n"/>
@@ -3140,7 +2831,7 @@
       <c r="R136" s="1" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n"/>
+      <c r="A137" s="3" t="n"/>
       <c r="C137" s="1" t="n"/>
       <c r="F137" s="1" t="n"/>
       <c r="I137" s="1" t="n"/>
@@ -3149,7 +2840,7 @@
       <c r="R137" s="1" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n"/>
+      <c r="A138" s="3" t="n"/>
       <c r="C138" s="1" t="n"/>
       <c r="F138" s="1" t="n"/>
       <c r="I138" s="1" t="n"/>
@@ -3158,7 +2849,7 @@
       <c r="R138" s="1" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n"/>
+      <c r="A139" s="3" t="n"/>
       <c r="C139" s="1" t="n"/>
       <c r="F139" s="1" t="n"/>
       <c r="I139" s="1" t="n"/>
@@ -3167,7 +2858,7 @@
       <c r="R139" s="1" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n"/>
+      <c r="A140" s="3" t="n"/>
       <c r="C140" s="1" t="n"/>
       <c r="F140" s="1" t="n"/>
       <c r="I140" s="1" t="n"/>
@@ -3176,7 +2867,7 @@
       <c r="R140" s="1" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n"/>
+      <c r="A141" s="3" t="n"/>
       <c r="C141" s="1" t="n"/>
       <c r="F141" s="1" t="n"/>
       <c r="I141" s="1" t="n"/>
@@ -3185,7 +2876,7 @@
       <c r="R141" s="1" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n"/>
+      <c r="A142" s="3" t="n"/>
       <c r="C142" s="1" t="n"/>
       <c r="F142" s="1" t="n"/>
       <c r="I142" s="1" t="n"/>
@@ -3194,7 +2885,7 @@
       <c r="R142" s="1" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n"/>
+      <c r="A143" s="3" t="n"/>
       <c r="C143" s="1" t="n"/>
       <c r="F143" s="1" t="n"/>
       <c r="I143" s="1" t="n"/>
@@ -3203,7 +2894,7 @@
       <c r="R143" s="1" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n"/>
+      <c r="A144" s="3" t="n"/>
       <c r="C144" s="1" t="n"/>
       <c r="F144" s="1" t="n"/>
       <c r="I144" s="1" t="n"/>
@@ -3212,7 +2903,7 @@
       <c r="R144" s="1" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n"/>
+      <c r="A145" s="3" t="n"/>
       <c r="C145" s="1" t="n"/>
       <c r="F145" s="1" t="n"/>
       <c r="I145" s="1" t="n"/>
@@ -3221,7 +2912,7 @@
       <c r="R145" s="1" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n"/>
+      <c r="A146" s="3" t="n"/>
       <c r="C146" s="1" t="n"/>
       <c r="F146" s="1" t="n"/>
       <c r="I146" s="1" t="n"/>
@@ -3230,7 +2921,7 @@
       <c r="R146" s="1" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n"/>
+      <c r="A147" s="3" t="n"/>
       <c r="C147" s="1" t="n"/>
       <c r="F147" s="1" t="n"/>
       <c r="I147" s="1" t="n"/>
@@ -3239,7 +2930,7 @@
       <c r="R147" s="1" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n"/>
+      <c r="A148" s="3" t="n"/>
       <c r="C148" s="1" t="n"/>
       <c r="F148" s="1" t="n"/>
       <c r="I148" s="1" t="n"/>
@@ -3248,7 +2939,7 @@
       <c r="R148" s="1" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n"/>
+      <c r="A149" s="3" t="n"/>
       <c r="C149" s="1" t="n"/>
       <c r="F149" s="1" t="n"/>
       <c r="I149" s="1" t="n"/>
@@ -3257,7 +2948,7 @@
       <c r="R149" s="1" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n"/>
+      <c r="A150" s="3" t="n"/>
       <c r="C150" s="1" t="n"/>
       <c r="F150" s="1" t="n"/>
       <c r="I150" s="1" t="n"/>
@@ -3266,7 +2957,7 @@
       <c r="R150" s="1" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n"/>
+      <c r="A151" s="3" t="n"/>
       <c r="C151" s="1" t="n"/>
       <c r="F151" s="1" t="n"/>
       <c r="I151" s="1" t="n"/>
@@ -3275,7 +2966,7 @@
       <c r="R151" s="1" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n"/>
+      <c r="A152" s="3" t="n"/>
       <c r="C152" s="1" t="n"/>
       <c r="F152" s="1" t="n"/>
       <c r="I152" s="1" t="n"/>
@@ -3284,7 +2975,7 @@
       <c r="R152" s="1" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n"/>
+      <c r="A153" s="3" t="n"/>
       <c r="C153" s="1" t="n"/>
       <c r="F153" s="1" t="n"/>
       <c r="I153" s="1" t="n"/>
@@ -3293,7 +2984,7 @@
       <c r="R153" s="1" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n"/>
+      <c r="A154" s="3" t="n"/>
       <c r="C154" s="1" t="n"/>
       <c r="F154" s="1" t="n"/>
       <c r="I154" s="1" t="n"/>
@@ -3302,7 +2993,7 @@
       <c r="R154" s="1" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n"/>
+      <c r="A155" s="3" t="n"/>
       <c r="C155" s="1" t="n"/>
       <c r="F155" s="1" t="n"/>
       <c r="I155" s="1" t="n"/>
@@ -3311,7 +3002,7 @@
       <c r="R155" s="1" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n"/>
+      <c r="A156" s="3" t="n"/>
       <c r="C156" s="1" t="n"/>
       <c r="F156" s="1" t="n"/>
       <c r="I156" s="1" t="n"/>
@@ -3320,7 +3011,7 @@
       <c r="R156" s="1" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n"/>
+      <c r="A157" s="3" t="n"/>
       <c r="C157" s="1" t="n"/>
       <c r="F157" s="1" t="n"/>
       <c r="I157" s="1" t="n"/>
@@ -3329,7 +3020,7 @@
       <c r="R157" s="1" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n"/>
+      <c r="A158" s="3" t="n"/>
       <c r="C158" s="1" t="n"/>
       <c r="F158" s="1" t="n"/>
       <c r="I158" s="1" t="n"/>
@@ -3338,7 +3029,7 @@
       <c r="R158" s="1" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n"/>
+      <c r="A159" s="3" t="n"/>
       <c r="C159" s="1" t="n"/>
       <c r="F159" s="1" t="n"/>
       <c r="I159" s="1" t="n"/>
@@ -3347,7 +3038,7 @@
       <c r="R159" s="1" t="n"/>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n"/>
+      <c r="A160" s="3" t="n"/>
       <c r="C160" s="1" t="n"/>
       <c r="F160" s="1" t="n"/>
       <c r="I160" s="1" t="n"/>
@@ -3356,7 +3047,7 @@
       <c r="R160" s="1" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n"/>
+      <c r="A161" s="3" t="n"/>
       <c r="C161" s="1" t="n"/>
       <c r="F161" s="1" t="n"/>
       <c r="I161" s="1" t="n"/>
@@ -3365,7 +3056,7 @@
       <c r="R161" s="1" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n"/>
+      <c r="A162" s="3" t="n"/>
       <c r="C162" s="1" t="n"/>
       <c r="F162" s="1" t="n"/>
       <c r="I162" s="1" t="n"/>
@@ -3374,7 +3065,7 @@
       <c r="R162" s="1" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n"/>
+      <c r="A163" s="3" t="n"/>
       <c r="C163" s="1" t="n"/>
       <c r="F163" s="1" t="n"/>
       <c r="I163" s="1" t="n"/>
@@ -3383,7 +3074,7 @@
       <c r="R163" s="1" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n"/>
+      <c r="A164" s="3" t="n"/>
       <c r="C164" s="1" t="n"/>
       <c r="F164" s="1" t="n"/>
       <c r="I164" s="1" t="n"/>
@@ -3392,7 +3083,7 @@
       <c r="R164" s="1" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n"/>
+      <c r="A165" s="3" t="n"/>
       <c r="C165" s="1" t="n"/>
       <c r="F165" s="1" t="n"/>
       <c r="I165" s="1" t="n"/>
@@ -3401,7 +3092,7 @@
       <c r="R165" s="1" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n"/>
+      <c r="A166" s="3" t="n"/>
       <c r="C166" s="1" t="n"/>
       <c r="F166" s="1" t="n"/>
       <c r="I166" s="1" t="n"/>
@@ -3410,7 +3101,7 @@
       <c r="R166" s="1" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n"/>
+      <c r="A167" s="3" t="n"/>
       <c r="C167" s="1" t="n"/>
       <c r="F167" s="1" t="n"/>
       <c r="I167" s="1" t="n"/>
@@ -3419,7 +3110,7 @@
       <c r="R167" s="1" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n"/>
+      <c r="A168" s="3" t="n"/>
       <c r="C168" s="1" t="n"/>
       <c r="F168" s="1" t="n"/>
       <c r="I168" s="1" t="n"/>
@@ -3428,7 +3119,7 @@
       <c r="R168" s="1" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n"/>
+      <c r="A169" s="3" t="n"/>
       <c r="C169" s="1" t="n"/>
       <c r="F169" s="1" t="n"/>
       <c r="I169" s="1" t="n"/>
@@ -3437,7 +3128,7 @@
       <c r="R169" s="1" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n"/>
+      <c r="A170" s="3" t="n"/>
       <c r="C170" s="1" t="n"/>
       <c r="F170" s="1" t="n"/>
       <c r="I170" s="1" t="n"/>
@@ -3446,7 +3137,7 @@
       <c r="R170" s="1" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n"/>
+      <c r="A171" s="3" t="n"/>
       <c r="C171" s="1" t="n"/>
       <c r="F171" s="1" t="n"/>
       <c r="I171" s="1" t="n"/>
@@ -3455,7 +3146,7 @@
       <c r="R171" s="1" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n"/>
+      <c r="A172" s="3" t="n"/>
       <c r="C172" s="1" t="n"/>
       <c r="F172" s="1" t="n"/>
       <c r="I172" s="1" t="n"/>
@@ -3464,7 +3155,7 @@
       <c r="R172" s="1" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n"/>
+      <c r="A173" s="3" t="n"/>
       <c r="C173" s="1" t="n"/>
       <c r="F173" s="1" t="n"/>
       <c r="I173" s="1" t="n"/>
@@ -3473,7 +3164,7 @@
       <c r="R173" s="1" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n"/>
+      <c r="A174" s="3" t="n"/>
       <c r="C174" s="1" t="n"/>
       <c r="F174" s="1" t="n"/>
       <c r="I174" s="1" t="n"/>
@@ -3482,7 +3173,7 @@
       <c r="R174" s="1" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n"/>
+      <c r="A175" s="3" t="n"/>
       <c r="C175" s="1" t="n"/>
       <c r="F175" s="1" t="n"/>
       <c r="I175" s="1" t="n"/>
@@ -3491,7 +3182,7 @@
       <c r="R175" s="1" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n"/>
+      <c r="A176" s="3" t="n"/>
       <c r="C176" s="1" t="n"/>
       <c r="F176" s="1" t="n"/>
       <c r="I176" s="1" t="n"/>
@@ -3500,7 +3191,7 @@
       <c r="R176" s="1" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n"/>
+      <c r="A177" s="3" t="n"/>
       <c r="C177" s="1" t="n"/>
       <c r="F177" s="1" t="n"/>
       <c r="I177" s="1" t="n"/>
@@ -3509,7 +3200,7 @@
       <c r="R177" s="1" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n"/>
+      <c r="A178" s="3" t="n"/>
       <c r="C178" s="1" t="n"/>
       <c r="F178" s="1" t="n"/>
       <c r="I178" s="1" t="n"/>
@@ -3518,7 +3209,7 @@
       <c r="R178" s="1" t="n"/>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n"/>
+      <c r="A179" s="3" t="n"/>
       <c r="C179" s="1" t="n"/>
       <c r="F179" s="1" t="n"/>
       <c r="I179" s="1" t="n"/>
@@ -3527,7 +3218,7 @@
       <c r="R179" s="1" t="n"/>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n"/>
+      <c r="A180" s="3" t="n"/>
       <c r="C180" s="1" t="n"/>
       <c r="F180" s="1" t="n"/>
       <c r="I180" s="1" t="n"/>
@@ -3536,7 +3227,7 @@
       <c r="R180" s="1" t="n"/>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n"/>
+      <c r="A181" s="3" t="n"/>
       <c r="C181" s="1" t="n"/>
       <c r="F181" s="1" t="n"/>
       <c r="I181" s="1" t="n"/>
@@ -3545,7 +3236,7 @@
       <c r="R181" s="1" t="n"/>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n"/>
+      <c r="A182" s="3" t="n"/>
       <c r="C182" s="1" t="n"/>
       <c r="F182" s="1" t="n"/>
       <c r="I182" s="1" t="n"/>
@@ -3554,7 +3245,7 @@
       <c r="R182" s="1" t="n"/>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n"/>
+      <c r="A183" s="3" t="n"/>
       <c r="C183" s="1" t="n"/>
       <c r="F183" s="1" t="n"/>
       <c r="I183" s="1" t="n"/>
@@ -3563,7 +3254,7 @@
       <c r="R183" s="1" t="n"/>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n"/>
+      <c r="A184" s="3" t="n"/>
       <c r="C184" s="1" t="n"/>
       <c r="F184" s="1" t="n"/>
       <c r="I184" s="1" t="n"/>
@@ -3572,7 +3263,7 @@
       <c r="R184" s="1" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n"/>
+      <c r="A185" s="3" t="n"/>
       <c r="C185" s="1" t="n"/>
       <c r="F185" s="1" t="n"/>
       <c r="I185" s="1" t="n"/>
@@ -3581,7 +3272,7 @@
       <c r="R185" s="1" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n"/>
+      <c r="A186" s="3" t="n"/>
       <c r="C186" s="1" t="n"/>
       <c r="F186" s="1" t="n"/>
       <c r="I186" s="1" t="n"/>
@@ -3590,7 +3281,7 @@
       <c r="R186" s="1" t="n"/>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n"/>
+      <c r="A187" s="3" t="n"/>
       <c r="C187" s="1" t="n"/>
       <c r="F187" s="1" t="n"/>
       <c r="I187" s="1" t="n"/>
@@ -3599,7 +3290,7 @@
       <c r="R187" s="1" t="n"/>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n"/>
+      <c r="A188" s="3" t="n"/>
       <c r="C188" s="1" t="n"/>
       <c r="F188" s="1" t="n"/>
       <c r="I188" s="1" t="n"/>
@@ -3608,7 +3299,7 @@
       <c r="R188" s="1" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n"/>
+      <c r="A189" s="3" t="n"/>
       <c r="C189" s="1" t="n"/>
       <c r="F189" s="1" t="n"/>
       <c r="I189" s="1" t="n"/>
@@ -3617,7 +3308,7 @@
       <c r="R189" s="1" t="n"/>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n"/>
+      <c r="A190" s="3" t="n"/>
       <c r="C190" s="1" t="n"/>
       <c r="F190" s="1" t="n"/>
       <c r="I190" s="1" t="n"/>
@@ -3626,7 +3317,7 @@
       <c r="R190" s="1" t="n"/>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n"/>
+      <c r="A191" s="3" t="n"/>
       <c r="C191" s="1" t="n"/>
       <c r="F191" s="1" t="n"/>
       <c r="I191" s="1" t="n"/>
@@ -3635,7 +3326,7 @@
       <c r="R191" s="1" t="n"/>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n"/>
+      <c r="A192" s="3" t="n"/>
       <c r="C192" s="1" t="n"/>
       <c r="F192" s="1" t="n"/>
       <c r="I192" s="1" t="n"/>
@@ -3644,7 +3335,7 @@
       <c r="R192" s="1" t="n"/>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n"/>
+      <c r="A193" s="3" t="n"/>
       <c r="C193" s="1" t="n"/>
       <c r="F193" s="1" t="n"/>
       <c r="I193" s="1" t="n"/>
@@ -3653,7 +3344,7 @@
       <c r="R193" s="1" t="n"/>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n"/>
+      <c r="A194" s="3" t="n"/>
       <c r="C194" s="1" t="n"/>
       <c r="F194" s="1" t="n"/>
       <c r="I194" s="1" t="n"/>
@@ -3662,7 +3353,7 @@
       <c r="R194" s="1" t="n"/>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n"/>
+      <c r="A195" s="3" t="n"/>
       <c r="C195" s="1" t="n"/>
       <c r="F195" s="1" t="n"/>
       <c r="I195" s="1" t="n"/>
@@ -3671,7 +3362,7 @@
       <c r="R195" s="1" t="n"/>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n"/>
+      <c r="A196" s="3" t="n"/>
       <c r="C196" s="1" t="n"/>
       <c r="F196" s="1" t="n"/>
       <c r="I196" s="1" t="n"/>
@@ -3680,7 +3371,7 @@
       <c r="R196" s="1" t="n"/>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n"/>
+      <c r="A197" s="3" t="n"/>
       <c r="C197" s="1" t="n"/>
       <c r="F197" s="1" t="n"/>
       <c r="I197" s="1" t="n"/>
@@ -3689,7 +3380,7 @@
       <c r="R197" s="1" t="n"/>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n"/>
+      <c r="A198" s="3" t="n"/>
       <c r="C198" s="1" t="n"/>
       <c r="F198" s="1" t="n"/>
       <c r="I198" s="1" t="n"/>
@@ -3698,7 +3389,7 @@
       <c r="R198" s="1" t="n"/>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n"/>
+      <c r="A199" s="3" t="n"/>
       <c r="C199" s="1" t="n"/>
       <c r="F199" s="1" t="n"/>
       <c r="I199" s="1" t="n"/>
